--- a/Data/Fake_Person_List_25-03-21.xlsx
+++ b/Data/Fake_Person_List_25-03-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Full Name</x:t>
   </x:si>
@@ -34,58 +34,91 @@
     <x:t>Address</x:t>
   </x:si>
   <x:si>
-    <x:t>Leah Sankt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>085 703 2558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LeahSankt@jourrapide.com            This is a real email address. Click here to activate it!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wound, ostomy, and continence nurse</x:t>
+    <x:t>Bruno Pinto Castro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>084 694 2069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BrunoPintoCastro@rhyta.com            This is a real email address. Click here to activate it!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cutter</x:t>
   </x:si>
   <x:si>
     <x:t>South Africa</x:t>
   </x:si>
   <x:si>
-    <x:t>1910 Loop StYsterplaat7405</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Céline Beaudoin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>514-574-7800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CelineBeaudoin@teleworm.us            This is a real email address. Click here to activate it!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barber</x:t>
+    <x:t>1990 Crown StStanderton2434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Juliane Köhler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>767 2651</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madve1969</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Estonia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Põllu 8068614 Roobe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ming Ts'ai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>705-858-8915</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MingTsai@rhyta.com            This is a real email address. Click here to activate it!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Financial clerk</x:t>
   </x:si>
   <x:si>
     <x:t>Canada</x:t>
   </x:si>
   <x:si>
-    <x:t>1609 René-Lévesque BlvdMontreal, QC H3B 4W8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeanette Lemieux</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96 52 02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hicend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plant manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Greenland</x:t>
-  </x:si>
-  <x:si>
-    <x:t>P.O. Box 2293962 Upernavik</x:t>
+    <x:t>1470 Dry Pine Bay RdCapreol, ON P0M 1H0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ute Nussbaum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9138 9106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tioss1974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fork lift operator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Uruguay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Paso Rivero 246155002 Tomas Gomensoro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wang Teng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9830 0909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Posee1960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Local transit bus driver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cagancha 356415000 Paso de Carrasco</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -522,6 +555,46 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
